--- a/mashovFinal/uploadedFiles/פרויקט גמר תעשייה וניהול - חלק א.xlsx
+++ b/mashovFinal/uploadedFiles/פרויקט גמר תעשייה וניהול - חלק א.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC797FDD-76E4-4149-B5F2-BBBAC1E85A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098409CA-EC49-4A6C-82DB-B4C61DAAA8E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2920" yWindow="2840" windowWidth="14400" windowHeight="7360" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="מנחים" sheetId="5" r:id="rId1"/>
@@ -2310,7 +2310,7 @@
   <dimension ref="A1:AC63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
